--- a/metadata/raw_metadata/1_trip_IDs.xlsx
+++ b/metadata/raw_metadata/1_trip_IDs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminpeterson/Documents/research/BLiMMP/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminpeterson/Documents/research/BLiMMP/metadata/raw_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510CC18E-284D-2B4A-859F-F5B5066FB53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C3B365-814A-CD47-B366-8F646EE4B264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36740" yWindow="-7160" windowWidth="33000" windowHeight="20540" xr2:uid="{96073261-AB15-6F44-B1A5-3AC7FF3B9944}"/>
+    <workbookView xWindow="36740" yWindow="-3120" windowWidth="33000" windowHeight="20540" xr2:uid="{96073261-AB15-6F44-B1A5-3AC7FF3B9944}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5436DFFB-CC1A-4341-B80D-6AB76CA949B4}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
